--- a/biology/Botanique/Juliet_(pomme)/Juliet_(pomme).xlsx
+++ b/biology/Botanique/Juliet_(pomme)/Juliet_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juliet est le nom commercial d'un cultivar de pommier domestique aussi répertorié sous l'appellation Coop 43[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juliet est le nom commercial d'un cultivar de pommier domestique aussi répertorié sous l'appellation Coop 43.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">États-Unis, fruit des recherches du groupe universitaire PRI (universités Purdue, Rudgers et d'Illinois).
 </t>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Juliet est une variété de pomme bicolore produite uniquement en France et exclusivement en agriculture biologique. Elle est parfumée, sucrée ainsi que juteuse. Elle est cultivée sur 700 hectares par 190 arboriculteurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Juliet est une variété de pomme bicolore produite uniquement en France et exclusivement en agriculture biologique. Elle est parfumée, sucrée ainsi que juteuse. Elle est cultivée sur 700 hectares par 190 arboriculteurs.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Agriculture biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Juliet est une variété de pomme qui est produite exclusivement en agriculture biologique, possédant le label AB[réf. souhaitée].
 </t>
@@ -630,7 +650,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Précoce, avril[réf. nécessaire].
 10 jours avant Golden.
@@ -662,9 +684,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maturité tardive : de début octobre à deuxième quinzaine de novembre[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maturité tardive : de début octobre à deuxième quinzaine de novembre.
 Sensibilité aux maladies : variété résistante aux formes communes de tavelure, prédestinée à la culture biologique.
 </t>
         </is>
